--- a/data/pca/factorExposure/factorExposure_2011-12-27.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-12-27.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01075656706622554</v>
+        <v>0.01116582450651247</v>
       </c>
       <c r="C2">
-        <v>-0.03007251623231914</v>
+        <v>0.02438784249978211</v>
       </c>
       <c r="D2">
-        <v>-0.02142388721236387</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.0242945413591908</v>
+      </c>
+      <c r="E2">
+        <v>0.008602353087208572</v>
+      </c>
+      <c r="F2">
+        <v>-0.0250658912091401</v>
+      </c>
+      <c r="G2">
+        <v>-5.772990049657188e-05</v>
+      </c>
+      <c r="H2">
+        <v>-0.02848953752843931</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.07528056527916642</v>
+        <v>0.0878614892769566</v>
       </c>
       <c r="C4">
-        <v>-0.05013042311192603</v>
+        <v>0.03357507231812544</v>
       </c>
       <c r="D4">
-        <v>-0.0807592344845852</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.07006385512507306</v>
+      </c>
+      <c r="E4">
+        <v>0.00773499943954536</v>
+      </c>
+      <c r="F4">
+        <v>-0.04221175895078411</v>
+      </c>
+      <c r="G4">
+        <v>0.01162603772216426</v>
+      </c>
+      <c r="H4">
+        <v>0.04154060892555009</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.1103779732042856</v>
+        <v>0.1229883405352325</v>
       </c>
       <c r="C6">
-        <v>-0.04777425965448993</v>
+        <v>0.03313390044530426</v>
       </c>
       <c r="D6">
-        <v>-0.008414968187858253</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01178306487090767</v>
+      </c>
+      <c r="E6">
+        <v>-0.02279345311713136</v>
+      </c>
+      <c r="F6">
+        <v>-0.05495390470297609</v>
+      </c>
+      <c r="G6">
+        <v>0.0323485267954991</v>
+      </c>
+      <c r="H6">
+        <v>-0.1096227498123121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.05553171907497029</v>
+        <v>0.06456213733513863</v>
       </c>
       <c r="C7">
-        <v>-0.02658603065759681</v>
+        <v>0.0122684338040314</v>
       </c>
       <c r="D7">
-        <v>-0.03495615917097853</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05078918946755209</v>
+      </c>
+      <c r="E7">
+        <v>0.03002373534298577</v>
+      </c>
+      <c r="F7">
+        <v>-0.04488110372025331</v>
+      </c>
+      <c r="G7">
+        <v>-0.03197823845886454</v>
+      </c>
+      <c r="H7">
+        <v>0.01500596038495082</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.04112723702499824</v>
+        <v>0.04368465074714487</v>
       </c>
       <c r="C8">
-        <v>-0.01379359734908018</v>
+        <v>0.009560319630806382</v>
       </c>
       <c r="D8">
-        <v>-0.0594191333734784</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.02427996535813451</v>
+      </c>
+      <c r="E8">
+        <v>0.0139582282836438</v>
+      </c>
+      <c r="F8">
+        <v>-0.06750562521762513</v>
+      </c>
+      <c r="G8">
+        <v>0.05277529102674599</v>
+      </c>
+      <c r="H8">
+        <v>-0.009798575952082561</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.07155701377597878</v>
+        <v>0.08066643069670668</v>
       </c>
       <c r="C9">
-        <v>-0.03832246099685654</v>
+        <v>0.02238469006107104</v>
       </c>
       <c r="D9">
-        <v>-0.07084384484985091</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.06321395633311405</v>
+      </c>
+      <c r="E9">
+        <v>0.0255104710165735</v>
+      </c>
+      <c r="F9">
+        <v>-0.03355480061001186</v>
+      </c>
+      <c r="G9">
+        <v>0.02202399071732471</v>
+      </c>
+      <c r="H9">
+        <v>0.04839872538656079</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.03031067447599034</v>
+        <v>0.04487982855926699</v>
       </c>
       <c r="C10">
-        <v>-0.03239545302133393</v>
+        <v>0.06304864554345511</v>
       </c>
       <c r="D10">
-        <v>0.1779951174142655</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1753846626215444</v>
+      </c>
+      <c r="E10">
+        <v>0.04105720111460642</v>
+      </c>
+      <c r="F10">
+        <v>-0.05506499911234179</v>
+      </c>
+      <c r="G10">
+        <v>-0.03595792307634624</v>
+      </c>
+      <c r="H10">
+        <v>-0.05142014479581523</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.07295727439908635</v>
+        <v>0.0769919480987159</v>
       </c>
       <c r="C11">
-        <v>-0.04092303773072723</v>
+        <v>0.01899587035390127</v>
       </c>
       <c r="D11">
-        <v>-0.0556158976109856</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.06634587883094241</v>
+      </c>
+      <c r="E11">
+        <v>-0.008311989065088081</v>
+      </c>
+      <c r="F11">
+        <v>-0.03560516348185645</v>
+      </c>
+      <c r="G11">
+        <v>0.03106380768447827</v>
+      </c>
+      <c r="H11">
+        <v>0.07295959509438374</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.06072730803583928</v>
+        <v>0.06970262892191817</v>
       </c>
       <c r="C12">
-        <v>-0.04994555393489793</v>
+        <v>0.0319847971477861</v>
       </c>
       <c r="D12">
-        <v>-0.04486196005652448</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.05020106041928874</v>
+      </c>
+      <c r="E12">
+        <v>0.009409700365467538</v>
+      </c>
+      <c r="F12">
+        <v>-0.02454564758762291</v>
+      </c>
+      <c r="G12">
+        <v>0.0160820768859671</v>
+      </c>
+      <c r="H12">
+        <v>0.03233640110386653</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.06817152285258642</v>
+        <v>0.067615731641326</v>
       </c>
       <c r="C13">
-        <v>-0.03367884744982252</v>
+        <v>0.01650090298122282</v>
       </c>
       <c r="D13">
-        <v>-0.04168810586295067</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.03895178044045657</v>
+      </c>
+      <c r="E13">
+        <v>0.0107509752045106</v>
+      </c>
+      <c r="F13">
+        <v>-0.02537796789882042</v>
+      </c>
+      <c r="G13">
+        <v>0.004333503017798611</v>
+      </c>
+      <c r="H13">
+        <v>0.05517660609520084</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.03407899441640241</v>
+        <v>0.03982325697583109</v>
       </c>
       <c r="C14">
-        <v>-0.03195395053213776</v>
+        <v>0.02576329637462631</v>
       </c>
       <c r="D14">
-        <v>0.008060163614747965</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.01422373902139517</v>
+      </c>
+      <c r="E14">
+        <v>0.0262409971747141</v>
+      </c>
+      <c r="F14">
+        <v>-0.0193172519272158</v>
+      </c>
+      <c r="G14">
+        <v>0.02469350002010745</v>
+      </c>
+      <c r="H14">
+        <v>0.05318787737359824</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.0424929833350844</v>
+        <v>0.04125777330261875</v>
       </c>
       <c r="C15">
-        <v>-0.008423240584570085</v>
+        <v>0.001656475031968822</v>
       </c>
       <c r="D15">
-        <v>-0.01860934171812074</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.006518459793294212</v>
+      </c>
+      <c r="E15">
+        <v>0.03555401182957028</v>
+      </c>
+      <c r="F15">
+        <v>-0.005345860545971254</v>
+      </c>
+      <c r="G15">
+        <v>0.03351425287014281</v>
+      </c>
+      <c r="H15">
+        <v>0.02579797616404925</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.06110372797348016</v>
+        <v>0.07176885940202261</v>
       </c>
       <c r="C16">
-        <v>-0.03841232985341647</v>
+        <v>0.02218764964601733</v>
       </c>
       <c r="D16">
-        <v>-0.05065190322715171</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06245504896473411</v>
+      </c>
+      <c r="E16">
+        <v>0.002371719011213564</v>
+      </c>
+      <c r="F16">
+        <v>-0.03120860971417961</v>
+      </c>
+      <c r="G16">
+        <v>0.01448262694650965</v>
+      </c>
+      <c r="H16">
+        <v>0.04967438188909028</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1159,22 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1185,204 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.06422917940163381</v>
+        <v>0.06266708912745213</v>
       </c>
       <c r="C20">
-        <v>-0.02392508956836522</v>
+        <v>0.005833392262140203</v>
       </c>
       <c r="D20">
-        <v>-0.04812568024266829</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.04123812020920942</v>
+      </c>
+      <c r="E20">
+        <v>0.009385468876269594</v>
+      </c>
+      <c r="F20">
+        <v>-0.03056047590189456</v>
+      </c>
+      <c r="G20">
+        <v>0.02565584659571174</v>
+      </c>
+      <c r="H20">
+        <v>0.04776187172544701</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.02884826939552193</v>
+        <v>0.02804089739388488</v>
       </c>
       <c r="C21">
-        <v>0.001103882024659874</v>
+        <v>-0.00932895608981329</v>
       </c>
       <c r="D21">
-        <v>-0.01902134318947839</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.02098265990891195</v>
+      </c>
+      <c r="E21">
+        <v>0.04033196148834873</v>
+      </c>
+      <c r="F21">
+        <v>0.003434905574979062</v>
+      </c>
+      <c r="G21">
+        <v>0.01053849926195716</v>
+      </c>
+      <c r="H21">
+        <v>-0.04713275973979415</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.07965871620969345</v>
+        <v>0.07170843608357873</v>
       </c>
       <c r="C22">
-        <v>-0.05948495642773867</v>
+        <v>0.03348019664406942</v>
       </c>
       <c r="D22">
-        <v>-0.1401040764784512</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.09826917665878809</v>
+      </c>
+      <c r="E22">
+        <v>0.6161374105097737</v>
+      </c>
+      <c r="F22">
+        <v>0.07041848812625641</v>
+      </c>
+      <c r="G22">
+        <v>-0.1379124976560951</v>
+      </c>
+      <c r="H22">
+        <v>-0.1446304888788097</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.08065970618389708</v>
+        <v>0.07261845218318086</v>
       </c>
       <c r="C23">
-        <v>-0.05816970146463226</v>
+        <v>0.03214232633608476</v>
       </c>
       <c r="D23">
-        <v>-0.1412355384332406</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.09926592671477084</v>
+      </c>
+      <c r="E23">
+        <v>0.6181669827201707</v>
+      </c>
+      <c r="F23">
+        <v>0.0696158721507973</v>
+      </c>
+      <c r="G23">
+        <v>-0.1329230410978782</v>
+      </c>
+      <c r="H23">
+        <v>-0.1398065266833732</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.07710796678913664</v>
+        <v>0.0817078718116348</v>
       </c>
       <c r="C24">
-        <v>-0.04985146386723695</v>
+        <v>0.02752679835964035</v>
       </c>
       <c r="D24">
-        <v>-0.05940479590815036</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.06354128613219732</v>
+      </c>
+      <c r="E24">
+        <v>0.008934007984093831</v>
+      </c>
+      <c r="F24">
+        <v>-0.04162703603479363</v>
+      </c>
+      <c r="G24">
+        <v>0.02717872577862412</v>
+      </c>
+      <c r="H24">
+        <v>0.03682937376215069</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.07558702368741349</v>
+        <v>0.08024881903434294</v>
       </c>
       <c r="C25">
-        <v>-0.05199176947109073</v>
+        <v>0.03157416961329032</v>
       </c>
       <c r="D25">
-        <v>-0.06078089101056329</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.05190794128582344</v>
+      </c>
+      <c r="E25">
+        <v>0.01545825234401243</v>
+      </c>
+      <c r="F25">
+        <v>-0.03639098629245376</v>
+      </c>
+      <c r="G25">
+        <v>0.03832250278509176</v>
+      </c>
+      <c r="H25">
+        <v>0.04308708842385284</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.04644620863918716</v>
+        <v>0.0460342665845748</v>
       </c>
       <c r="C26">
-        <v>-0.009191260712053092</v>
+        <v>-0.001374965930249916</v>
       </c>
       <c r="D26">
-        <v>-0.01300533834063239</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02038338493550433</v>
+      </c>
+      <c r="E26">
+        <v>0.04202047567103869</v>
+      </c>
+      <c r="F26">
+        <v>-0.03976626723252066</v>
+      </c>
+      <c r="G26">
+        <v>0.01017502647666401</v>
+      </c>
+      <c r="H26">
+        <v>0.0484032728040838</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.04779905300755271</v>
+        <v>0.06915655942091661</v>
       </c>
       <c r="C28">
-        <v>-0.07479548267057719</v>
+        <v>0.1178869152498375</v>
       </c>
       <c r="D28">
-        <v>0.3020058929655592</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2949626348125918</v>
+      </c>
+      <c r="E28">
+        <v>0.03348641554798986</v>
+      </c>
+      <c r="F28">
+        <v>-0.06216493601483904</v>
+      </c>
+      <c r="G28">
+        <v>0.01980695083730736</v>
+      </c>
+      <c r="H28">
+        <v>-0.04901356273627013</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.04602798222534029</v>
+        <v>0.04793316050572054</v>
       </c>
       <c r="C29">
-        <v>-0.02951349710206123</v>
+        <v>0.02125796821502557</v>
       </c>
       <c r="D29">
-        <v>-0.002747726765265438</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.01231084532836186</v>
+      </c>
+      <c r="E29">
+        <v>0.05605454633206659</v>
+      </c>
+      <c r="F29">
+        <v>-0.02055288994926392</v>
+      </c>
+      <c r="G29">
+        <v>0.01706626399762352</v>
+      </c>
+      <c r="H29">
+        <v>0.06964383939447938</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.1295921145521205</v>
+        <v>0.1266479578150785</v>
       </c>
       <c r="C30">
-        <v>-0.08495230078374948</v>
+        <v>0.05243589495669029</v>
       </c>
       <c r="D30">
-        <v>-0.1146532089585976</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08292744273319097</v>
+      </c>
+      <c r="E30">
+        <v>0.06283673549624966</v>
+      </c>
+      <c r="F30">
+        <v>-0.02199970128819495</v>
+      </c>
+      <c r="G30">
+        <v>0.07772590291431627</v>
+      </c>
+      <c r="H30">
+        <v>-0.0195022803005786</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.04824035234725034</v>
+        <v>0.04941967431622363</v>
       </c>
       <c r="C31">
-        <v>-0.02265109120862669</v>
+        <v>0.009626650997261555</v>
       </c>
       <c r="D31">
-        <v>-0.01954201205275389</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.03375271945806323</v>
+      </c>
+      <c r="E31">
+        <v>0.02272270381222657</v>
+      </c>
+      <c r="F31">
+        <v>-0.0074464958680783</v>
+      </c>
+      <c r="G31">
+        <v>-0.004040342482993949</v>
+      </c>
+      <c r="H31">
+        <v>0.06966953039665287</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.03699776848019843</v>
+        <v>0.04011847929496476</v>
       </c>
       <c r="C32">
-        <v>-0.02432885905637289</v>
+        <v>0.02328770515441378</v>
       </c>
       <c r="D32">
-        <v>-0.02520757787854693</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.009060112100640692</v>
+      </c>
+      <c r="E32">
+        <v>0.05592573167355655</v>
+      </c>
+      <c r="F32">
+        <v>0.00141517293510988</v>
+      </c>
+      <c r="G32">
+        <v>0.0357806175754663</v>
+      </c>
+      <c r="H32">
+        <v>0.03392371429534564</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.08658370980137678</v>
+        <v>0.09509613741450207</v>
       </c>
       <c r="C33">
-        <v>-0.03912461286152088</v>
+        <v>0.01908425940543929</v>
       </c>
       <c r="D33">
-        <v>-0.05230005174546527</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.04837123822552029</v>
+      </c>
+      <c r="E33">
+        <v>0.01164014582254464</v>
+      </c>
+      <c r="F33">
+        <v>-0.01165065710083995</v>
+      </c>
+      <c r="G33">
+        <v>0.01255199483650918</v>
+      </c>
+      <c r="H33">
+        <v>0.0646068383277759</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.05966239044657282</v>
+        <v>0.06449669333581363</v>
       </c>
       <c r="C34">
-        <v>-0.02342459616573633</v>
+        <v>0.006524210230635908</v>
       </c>
       <c r="D34">
-        <v>-0.05219388820481555</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.04971632001206128</v>
+      </c>
+      <c r="E34">
+        <v>0.005679064927352544</v>
+      </c>
+      <c r="F34">
+        <v>-0.0239743812337331</v>
+      </c>
+      <c r="G34">
+        <v>0.01888389213203247</v>
+      </c>
+      <c r="H34">
+        <v>0.05027065030735262</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>-0.03662631529423769</v>
+        <v>0.03800644306681124</v>
       </c>
       <c r="C35">
-        <v>-0.00704668183748766</v>
+        <v>0.0008705927912740084</v>
       </c>
       <c r="D35">
-        <v>-0.0200824446705666</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01559229444696589</v>
+      </c>
+      <c r="E35">
+        <v>0.02164483857338642</v>
+      </c>
+      <c r="F35">
+        <v>0.01704343666828054</v>
+      </c>
+      <c r="G35">
+        <v>0.003490974684638164</v>
+      </c>
+      <c r="H35">
+        <v>0.02464422882029697</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.02509210222503257</v>
+        <v>0.02922908198427182</v>
       </c>
       <c r="C36">
-        <v>-0.0179444934732617</v>
+        <v>0.0132607913603802</v>
       </c>
       <c r="D36">
-        <v>-0.02001704479017589</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01750504835085384</v>
+      </c>
+      <c r="E36">
+        <v>0.02729453045149073</v>
+      </c>
+      <c r="F36">
+        <v>-0.0287338872636309</v>
+      </c>
+      <c r="G36">
+        <v>0.00451733824748836</v>
+      </c>
+      <c r="H36">
+        <v>0.04528832192213342</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.04514131484777609</v>
+        <v>0.04666171538920155</v>
       </c>
       <c r="C38">
-        <v>-0.002747492613879035</v>
+        <v>-0.004466568498613742</v>
       </c>
       <c r="D38">
-        <v>-0.01623955559470528</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.01743621974862893</v>
+      </c>
+      <c r="E38">
+        <v>0.05167871221212299</v>
+      </c>
+      <c r="F38">
+        <v>-0.002239262665691268</v>
+      </c>
+      <c r="G38">
+        <v>0.005001000676488304</v>
+      </c>
+      <c r="H38">
+        <v>0.02610543161912803</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.09052688999715565</v>
+        <v>0.09920856445422606</v>
       </c>
       <c r="C39">
-        <v>-0.06588129000360755</v>
+        <v>0.04227448459669782</v>
       </c>
       <c r="D39">
-        <v>-0.06295467779883349</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.07135259617619828</v>
+      </c>
+      <c r="E39">
+        <v>0.001115654978970114</v>
+      </c>
+      <c r="F39">
+        <v>-0.0006691406075194516</v>
+      </c>
+      <c r="G39">
+        <v>0.05073140619132657</v>
+      </c>
+      <c r="H39">
+        <v>0.03232394414391313</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.08116188111612273</v>
+        <v>0.06361259045014067</v>
       </c>
       <c r="C40">
-        <v>-0.03398389363468399</v>
+        <v>0.003845356585030481</v>
       </c>
       <c r="D40">
-        <v>-0.0110278782833818</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03170469289191287</v>
+      </c>
+      <c r="E40">
+        <v>0.0366102058662117</v>
+      </c>
+      <c r="F40">
+        <v>0.04046535715812773</v>
+      </c>
+      <c r="G40">
+        <v>0.02616977246548274</v>
+      </c>
+      <c r="H40">
+        <v>-0.08372424745590476</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.04503622646419257</v>
+        <v>0.04643924815301684</v>
       </c>
       <c r="C41">
-        <v>-0.004296990475433995</v>
+        <v>-0.006646186365379536</v>
       </c>
       <c r="D41">
-        <v>-0.03724819898351459</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.03155670712748933</v>
+      </c>
+      <c r="E41">
+        <v>0.002967469749944698</v>
+      </c>
+      <c r="F41">
+        <v>0.013004919754881</v>
+      </c>
+      <c r="G41">
+        <v>0.01653719006263034</v>
+      </c>
+      <c r="H41">
+        <v>0.02052267376926963</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.05434859038554367</v>
+        <v>0.06078223234121408</v>
       </c>
       <c r="C43">
-        <v>-0.02492753939846443</v>
+        <v>0.0138214686904313</v>
       </c>
       <c r="D43">
-        <v>-0.01364183598561609</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.02826986283733397</v>
+      </c>
+      <c r="E43">
+        <v>0.02065605439327084</v>
+      </c>
+      <c r="F43">
+        <v>-0.01735624348728592</v>
+      </c>
+      <c r="G43">
+        <v>-0.006235260514401207</v>
+      </c>
+      <c r="H43">
+        <v>0.06116349264266381</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.0961929310668355</v>
+        <v>0.09425423915648945</v>
       </c>
       <c r="C44">
-        <v>-0.08100154086677415</v>
+        <v>0.05128229974220907</v>
       </c>
       <c r="D44">
-        <v>-0.0755896204087341</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.07129606656742569</v>
+      </c>
+      <c r="E44">
+        <v>0.0587207778597682</v>
+      </c>
+      <c r="F44">
+        <v>-0.09616649095301104</v>
+      </c>
+      <c r="G44">
+        <v>0.04277980277197583</v>
+      </c>
+      <c r="H44">
+        <v>0.08336579342448081</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.02812059649061987</v>
+        <v>0.03590371369702049</v>
       </c>
       <c r="C46">
-        <v>-0.01471925746744436</v>
+        <v>0.008714785371801977</v>
       </c>
       <c r="D46">
-        <v>-0.03209207394847764</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.03624338796864973</v>
+      </c>
+      <c r="E46">
+        <v>0.03135275102353634</v>
+      </c>
+      <c r="F46">
+        <v>-0.01602923888692052</v>
+      </c>
+      <c r="G46">
+        <v>0.007198264096091945</v>
+      </c>
+      <c r="H46">
+        <v>0.01951139567865399</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.03560754938843833</v>
+        <v>0.0417010331966611</v>
       </c>
       <c r="C47">
-        <v>-0.02363936394695086</v>
+        <v>0.01832411146966212</v>
       </c>
       <c r="D47">
-        <v>-0.0002157278733501194</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.006937806199604562</v>
+      </c>
+      <c r="E47">
+        <v>0.03973243544918086</v>
+      </c>
+      <c r="F47">
+        <v>0.008731919579375637</v>
+      </c>
+      <c r="G47">
+        <v>-0.02417443381731272</v>
+      </c>
+      <c r="H47">
+        <v>0.02873782591599082</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.03668701485819669</v>
+        <v>0.03981742049583598</v>
       </c>
       <c r="C48">
-        <v>-0.01857095722426013</v>
+        <v>0.01022690860027905</v>
       </c>
       <c r="D48">
-        <v>-0.03085365654033329</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.02029232417364981</v>
+      </c>
+      <c r="E48">
+        <v>0.03761119862818173</v>
+      </c>
+      <c r="F48">
+        <v>-0.01387150527720938</v>
+      </c>
+      <c r="G48">
+        <v>0.02295127469015244</v>
+      </c>
+      <c r="H48">
+        <v>0.02687089548450642</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>-0.1635231687171983</v>
+        <v>0.197967644797767</v>
       </c>
       <c r="C49">
-        <v>-0.04674316924774453</v>
+        <v>0.02881821746015854</v>
       </c>
       <c r="D49">
-        <v>-0.005301446561788104</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.02701779226172258</v>
+      </c>
+      <c r="E49">
+        <v>-0.1645835994194323</v>
+      </c>
+      <c r="F49">
+        <v>-0.03216775660160473</v>
+      </c>
+      <c r="G49">
+        <v>-0.1425073725507454</v>
+      </c>
+      <c r="H49">
+        <v>-0.2531257443317679</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.04334576010953085</v>
+        <v>0.04628386524907848</v>
       </c>
       <c r="C50">
-        <v>-0.02034973328969439</v>
+        <v>0.009362363029650255</v>
       </c>
       <c r="D50">
-        <v>-0.03921347660473478</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.03909108302997862</v>
+      </c>
+      <c r="E50">
+        <v>0.03446626110641855</v>
+      </c>
+      <c r="F50">
+        <v>-0.009919041379737975</v>
+      </c>
+      <c r="G50">
+        <v>0.00245765191255722</v>
+      </c>
+      <c r="H50">
+        <v>0.07629935271322973</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.0299009540035948</v>
+        <v>0.03525683638556364</v>
       </c>
       <c r="C51">
-        <v>-0.01039732516954302</v>
+        <v>0.006328240456718367</v>
       </c>
       <c r="D51">
-        <v>-0.0005037197709476917</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.0009949700876380517</v>
+      </c>
+      <c r="E51">
+        <v>0.006226468051148876</v>
+      </c>
+      <c r="F51">
+        <v>-0.01084773080258161</v>
+      </c>
+      <c r="G51">
+        <v>-0.01458591234028336</v>
+      </c>
+      <c r="H51">
+        <v>-0.01914387252435581</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1560415336500292</v>
+        <v>0.1605144867760615</v>
       </c>
       <c r="C53">
-        <v>-0.07094677757674972</v>
+        <v>0.04262551110360868</v>
       </c>
       <c r="D53">
-        <v>0.000900239663639018</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.02767776692914543</v>
+      </c>
+      <c r="E53">
+        <v>-0.03658878878511896</v>
+      </c>
+      <c r="F53">
+        <v>0.0004683623575074161</v>
+      </c>
+      <c r="G53">
+        <v>0.01668141336685046</v>
+      </c>
+      <c r="H53">
+        <v>0.1971666027950502</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.05712512063583928</v>
+        <v>0.05815486595108219</v>
       </c>
       <c r="C54">
-        <v>-0.01982972917254811</v>
+        <v>0.01054822262723346</v>
       </c>
       <c r="D54">
-        <v>-0.01819853695833561</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.01424867535272117</v>
+      </c>
+      <c r="E54">
+        <v>0.05020641135897588</v>
+      </c>
+      <c r="F54">
+        <v>-0.01895733097345258</v>
+      </c>
+      <c r="G54">
+        <v>0.04919119720052599</v>
+      </c>
+      <c r="H54">
+        <v>0.03923784529730632</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.103006693627022</v>
+        <v>0.1041342155943331</v>
       </c>
       <c r="C55">
-        <v>-0.04992247519119598</v>
+        <v>0.02913950466780154</v>
       </c>
       <c r="D55">
-        <v>-0.01902855405980123</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.03058493467075813</v>
+      </c>
+      <c r="E55">
+        <v>-0.00025659188727525</v>
+      </c>
+      <c r="F55">
+        <v>-0.01149184100046188</v>
+      </c>
+      <c r="G55">
+        <v>0.0231912279425867</v>
+      </c>
+      <c r="H55">
+        <v>0.156279467178778</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1526504449638619</v>
+        <v>0.1585084096473861</v>
       </c>
       <c r="C56">
-        <v>-0.08122923650332109</v>
+        <v>0.0493457258602273</v>
       </c>
       <c r="D56">
-        <v>-0.003263041593384783</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.04072255328426565</v>
+      </c>
+      <c r="E56">
+        <v>-0.02001331325137667</v>
+      </c>
+      <c r="F56">
+        <v>-0.01934969102771512</v>
+      </c>
+      <c r="G56">
+        <v>0.01458238680185954</v>
+      </c>
+      <c r="H56">
+        <v>0.1963407470783096</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2173,1010 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1326740374293121</v>
+        <v>0.1000208569251149</v>
       </c>
       <c r="C58">
-        <v>0.009192890709969249</v>
+        <v>-0.05063095279830324</v>
       </c>
       <c r="D58">
-        <v>-0.04197105209177262</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.0306259996829134</v>
+      </c>
+      <c r="E58">
+        <v>0.1328000894728927</v>
+      </c>
+      <c r="F58">
+        <v>-0.01074089626319075</v>
+      </c>
+      <c r="G58">
+        <v>-0.08685325849025478</v>
+      </c>
+      <c r="H58">
+        <v>-0.1435433310608178</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.1218946732076393</v>
+        <v>0.1456612953021207</v>
       </c>
       <c r="C59">
-        <v>-0.08272763630212314</v>
+        <v>0.1228443615711455</v>
       </c>
       <c r="D59">
-        <v>0.3910050464630151</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.3514144671092658</v>
+      </c>
+      <c r="E59">
+        <v>0.03037072954899864</v>
+      </c>
+      <c r="F59">
+        <v>-0.004196965815823855</v>
+      </c>
+      <c r="G59">
+        <v>-0.01121211755975594</v>
+      </c>
+      <c r="H59">
+        <v>0.01101186951691921</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.2103629768083422</v>
+        <v>0.238894100936161</v>
       </c>
       <c r="C60">
-        <v>-0.08727290653313306</v>
+        <v>0.05364026728636949</v>
       </c>
       <c r="D60">
-        <v>-0.01730098958124006</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.04700586524040049</v>
+      </c>
+      <c r="E60">
+        <v>-0.1136593314512678</v>
+      </c>
+      <c r="F60">
+        <v>-0.04429746689656884</v>
+      </c>
+      <c r="G60">
+        <v>-0.02499758612852444</v>
+      </c>
+      <c r="H60">
+        <v>-0.1483768524497058</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.08165115912672848</v>
+        <v>0.08710604113283466</v>
       </c>
       <c r="C61">
-        <v>-0.04477422365526338</v>
+        <v>0.02695548509715483</v>
       </c>
       <c r="D61">
-        <v>-0.03497449961956404</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04454739052706452</v>
+      </c>
+      <c r="E61">
+        <v>0.002901087999281692</v>
+      </c>
+      <c r="F61">
+        <v>-0.005381793059906522</v>
+      </c>
+      <c r="G61">
+        <v>0.02372991745859024</v>
+      </c>
+      <c r="H61">
+        <v>0.06373530665791145</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>-0.1333952843089683</v>
+        <v>0.1367323634217557</v>
       </c>
       <c r="C62">
-        <v>-0.05458699438252231</v>
+        <v>0.02462833810268107</v>
       </c>
       <c r="D62">
-        <v>-0.007169692427976606</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.04386368661479716</v>
+      </c>
+      <c r="E62">
+        <v>-0.05544195114242031</v>
+      </c>
+      <c r="F62">
+        <v>0.006295051303247723</v>
+      </c>
+      <c r="G62">
+        <v>0.06068571379619957</v>
+      </c>
+      <c r="H62">
+        <v>0.1954627243876484</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.0530691892079399</v>
+        <v>0.05267383667294799</v>
       </c>
       <c r="C63">
-        <v>-0.02260852549877573</v>
+        <v>0.01257762906104178</v>
       </c>
       <c r="D63">
-        <v>-0.02438145931424696</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.02032946517676533</v>
+      </c>
+      <c r="E63">
+        <v>0.04369466507050847</v>
+      </c>
+      <c r="F63">
+        <v>-0.004241879752323313</v>
+      </c>
+      <c r="G63">
+        <v>0.02864183850530525</v>
+      </c>
+      <c r="H63">
+        <v>0.03616446036218846</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.105537521494198</v>
+        <v>0.1090318806149445</v>
       </c>
       <c r="C64">
-        <v>-0.02771354423167521</v>
+        <v>0.01039313542418572</v>
       </c>
       <c r="D64">
-        <v>-0.02752474223007889</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.02847110735930995</v>
+      </c>
+      <c r="E64">
+        <v>0.03162370718577184</v>
+      </c>
+      <c r="F64">
+        <v>-0.04458067498837018</v>
+      </c>
+      <c r="G64">
+        <v>0.05727075729080652</v>
+      </c>
+      <c r="H64">
+        <v>0.02333602940896535</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.1287744256885286</v>
+        <v>0.1295786238771894</v>
       </c>
       <c r="C65">
-        <v>-0.0545498033327449</v>
+        <v>0.03692405386039015</v>
       </c>
       <c r="D65">
-        <v>-0.01629888552651985</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.0148153377575029</v>
+      </c>
+      <c r="E65">
+        <v>-0.009891955444230622</v>
+      </c>
+      <c r="F65">
+        <v>-0.05380046851212188</v>
+      </c>
+      <c r="G65">
+        <v>0.06293734992508529</v>
+      </c>
+      <c r="H65">
+        <v>-0.1267959367823872</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.1497154693938308</v>
+        <v>0.1519702311374879</v>
       </c>
       <c r="C66">
-        <v>-0.06511354814579984</v>
+        <v>0.02855253769187181</v>
       </c>
       <c r="D66">
-        <v>-0.09927443215687397</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.102815433486489</v>
+      </c>
+      <c r="E66">
+        <v>-0.02707261948746435</v>
+      </c>
+      <c r="F66">
+        <v>-0.001196656830891688</v>
+      </c>
+      <c r="G66">
+        <v>0.06671214787792222</v>
+      </c>
+      <c r="H66">
+        <v>0.09360072976471022</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.07645051199158408</v>
+        <v>0.08618703853201178</v>
       </c>
       <c r="C67">
-        <v>-0.00822383024536686</v>
+        <v>-0.002879869781909532</v>
       </c>
       <c r="D67">
-        <v>-0.02293518975326387</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.03099998912768889</v>
+      </c>
+      <c r="E67">
+        <v>0.02126000107548368</v>
+      </c>
+      <c r="F67">
+        <v>-0.01814842775069839</v>
+      </c>
+      <c r="G67">
+        <v>-0.009376091954113219</v>
+      </c>
+      <c r="H67">
+        <v>0.02438404546438923</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.0562230401994457</v>
+        <v>0.06364978857676577</v>
       </c>
       <c r="C68">
-        <v>-0.05374203732847203</v>
+        <v>0.08988042349529106</v>
       </c>
       <c r="D68">
-        <v>0.2570758068502358</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2619912743975225</v>
+      </c>
+      <c r="E68">
+        <v>0.04172116704884878</v>
+      </c>
+      <c r="F68">
+        <v>-0.01793417118521847</v>
+      </c>
+      <c r="G68">
+        <v>-0.006754476873736415</v>
+      </c>
+      <c r="H68">
+        <v>0.01877896562661749</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.0538217315354806</v>
+        <v>0.052604368698529</v>
       </c>
       <c r="C69">
-        <v>-0.01498249905826983</v>
+        <v>0.00218702627461953</v>
       </c>
       <c r="D69">
-        <v>-0.02588138462722051</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.02044823905683492</v>
+      </c>
+      <c r="E69">
+        <v>0.02455683783558449</v>
+      </c>
+      <c r="F69">
+        <v>0.01325666045295547</v>
+      </c>
+      <c r="G69">
+        <v>0.001503453995031273</v>
+      </c>
+      <c r="H69">
+        <v>0.04964680734503913</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>-0.002802659322470135</v>
+        <v>0.02802436757919177</v>
       </c>
       <c r="C70">
-        <v>0.005558304369255891</v>
+        <v>-0.0009577008192274689</v>
       </c>
       <c r="D70">
-        <v>0.01320543410583458</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.007932655861252504</v>
+      </c>
+      <c r="E70">
+        <v>-0.02024966194491989</v>
+      </c>
+      <c r="F70">
+        <v>-0.003603007168497113</v>
+      </c>
+      <c r="G70">
+        <v>-0.02815706560727599</v>
+      </c>
+      <c r="H70">
+        <v>-0.03138853212031785</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.05524346014570416</v>
+        <v>0.06863208885320717</v>
       </c>
       <c r="C71">
-        <v>-0.05346856050988291</v>
+        <v>0.09860036560253026</v>
       </c>
       <c r="D71">
-        <v>0.292497742250655</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2895287993562557</v>
+      </c>
+      <c r="E71">
+        <v>0.03853768950201879</v>
+      </c>
+      <c r="F71">
+        <v>-0.04778832133939576</v>
+      </c>
+      <c r="G71">
+        <v>-0.001082397203838169</v>
+      </c>
+      <c r="H71">
+        <v>0.01119951307878434</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1425599572039795</v>
+        <v>0.1441883356050542</v>
       </c>
       <c r="C72">
-        <v>-0.05653373447684965</v>
+        <v>0.02964652299397589</v>
       </c>
       <c r="D72">
-        <v>0.001860159882189257</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.003085091545421483</v>
+      </c>
+      <c r="E72">
+        <v>-0.05858495191352527</v>
+      </c>
+      <c r="F72">
+        <v>0.1583071264562048</v>
+      </c>
+      <c r="G72">
+        <v>0.1212275135260066</v>
+      </c>
+      <c r="H72">
+        <v>-0.01323185211225853</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2883360878964258</v>
+        <v>0.2892033532826377</v>
       </c>
       <c r="C73">
-        <v>-0.08830386782256773</v>
+        <v>0.01814802784872926</v>
       </c>
       <c r="D73">
-        <v>-0.04171208269405505</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.09811303475602574</v>
+      </c>
+      <c r="E73">
+        <v>-0.2439021699988356</v>
+      </c>
+      <c r="F73">
+        <v>-0.0500665819862223</v>
+      </c>
+      <c r="G73">
+        <v>-0.2602568454767727</v>
+      </c>
+      <c r="H73">
+        <v>-0.4266495315567576</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.08516415556237324</v>
+        <v>0.09294758051186321</v>
       </c>
       <c r="C74">
-        <v>-0.07384354130623778</v>
+        <v>0.05320610705411536</v>
       </c>
       <c r="D74">
-        <v>-0.007344485836213768</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.03964387271079092</v>
+      </c>
+      <c r="E74">
+        <v>-0.007924252530360909</v>
+      </c>
+      <c r="F74">
+        <v>0.004055165163440082</v>
+      </c>
+      <c r="G74">
+        <v>-0.02263417643156576</v>
+      </c>
+      <c r="H74">
+        <v>0.1284397529985081</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.1010298834787422</v>
+        <v>0.103523186946222</v>
       </c>
       <c r="C75">
-        <v>-0.04604130493183848</v>
+        <v>0.02065304006891366</v>
       </c>
       <c r="D75">
-        <v>-0.01635373310051854</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.02560390367651727</v>
+      </c>
+      <c r="E75">
+        <v>-0.002984228703708544</v>
+      </c>
+      <c r="F75">
+        <v>-0.001241795291344253</v>
+      </c>
+      <c r="G75">
+        <v>-0.001476883557020986</v>
+      </c>
+      <c r="H75">
+        <v>0.1009781816709308</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.135085187183888</v>
+        <v>0.1430951857851316</v>
       </c>
       <c r="C76">
-        <v>-0.07633591761249182</v>
+        <v>0.04845056892695214</v>
       </c>
       <c r="D76">
-        <v>-0.02730809714355411</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.05355928742055829</v>
+      </c>
+      <c r="E76">
+        <v>0.009291504797971282</v>
+      </c>
+      <c r="F76">
+        <v>-0.03416629134598891</v>
+      </c>
+      <c r="G76">
+        <v>0.02323412609893695</v>
+      </c>
+      <c r="H76">
+        <v>0.2164833163462474</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1183848813313476</v>
+        <v>0.1031870735154314</v>
       </c>
       <c r="C77">
-        <v>-0.006857745307250236</v>
+        <v>-0.02433952761882026</v>
       </c>
       <c r="D77">
-        <v>-0.0847469132530744</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.03537219285031217</v>
+      </c>
+      <c r="E77">
+        <v>0.0335886756474318</v>
+      </c>
+      <c r="F77">
+        <v>-0.1139102507219671</v>
+      </c>
+      <c r="G77">
+        <v>0.81445075719848</v>
+      </c>
+      <c r="H77">
+        <v>-0.3434295761580262</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.1080215426139573</v>
+        <v>0.1521680818507283</v>
       </c>
       <c r="C78">
-        <v>-0.03436306398200428</v>
+        <v>0.0280503651754899</v>
       </c>
       <c r="D78">
-        <v>-0.09299242549748167</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.07910157609407012</v>
+      </c>
+      <c r="E78">
+        <v>0.0469278545380682</v>
+      </c>
+      <c r="F78">
+        <v>-0.05876883010040287</v>
+      </c>
+      <c r="G78">
+        <v>0.05221102421594478</v>
+      </c>
+      <c r="H78">
+        <v>-0.06711051133475394</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.1484932319821272</v>
+        <v>0.1481947521319559</v>
       </c>
       <c r="C79">
-        <v>-0.0645671693312094</v>
+        <v>0.03043696544540215</v>
       </c>
       <c r="D79">
-        <v>-0.02340241392801733</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.04023803246997883</v>
+      </c>
+      <c r="E79">
+        <v>-0.02132741799060448</v>
+      </c>
+      <c r="F79">
+        <v>-0.01619022215466839</v>
+      </c>
+      <c r="G79">
+        <v>0.01575010206582533</v>
+      </c>
+      <c r="H79">
+        <v>0.1551474262802453</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.04103933426576695</v>
+        <v>0.04130357021894279</v>
       </c>
       <c r="C80">
-        <v>-0.01813830462721651</v>
+        <v>0.01033774099263633</v>
       </c>
       <c r="D80">
-        <v>-0.03405853931750266</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01731854119240851</v>
+      </c>
+      <c r="E80">
+        <v>-0.03697384680515367</v>
+      </c>
+      <c r="F80">
+        <v>-0.00169098190607306</v>
+      </c>
+      <c r="G80">
+        <v>-0.01870118123295711</v>
+      </c>
+      <c r="H80">
+        <v>0.04224122239842854</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.123351997106982</v>
+        <v>0.1243969730039994</v>
       </c>
       <c r="C81">
-        <v>-0.05584560239218004</v>
+        <v>0.02985225111085495</v>
       </c>
       <c r="D81">
-        <v>-0.02882710509553862</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.03099109051108892</v>
+      </c>
+      <c r="E81">
+        <v>0.009568907214218205</v>
+      </c>
+      <c r="F81">
+        <v>-0.005150810712369469</v>
+      </c>
+      <c r="G81">
+        <v>-0.01761498749768894</v>
+      </c>
+      <c r="H81">
+        <v>0.1463379641049088</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.1336994847772288</v>
+        <v>0.1309725068951733</v>
       </c>
       <c r="C82">
-        <v>-0.0688643036989859</v>
+        <v>0.04005461986312652</v>
       </c>
       <c r="D82">
-        <v>-0.005843452549560937</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.03834637272264861</v>
+      </c>
+      <c r="E82">
+        <v>-0.02462482283328149</v>
+      </c>
+      <c r="F82">
+        <v>-0.03976835730206179</v>
+      </c>
+      <c r="G82">
+        <v>-0.004615481525937418</v>
+      </c>
+      <c r="H82">
+        <v>0.2203997213448586</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.06717528008369658</v>
+        <v>0.08128802901314602</v>
       </c>
       <c r="C83">
-        <v>0.03123867607878305</v>
+        <v>-0.04171978927370535</v>
       </c>
       <c r="D83">
-        <v>-0.02498713072031515</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.02137998606852833</v>
+      </c>
+      <c r="E83">
+        <v>0.02120610317822082</v>
+      </c>
+      <c r="F83">
+        <v>-0.04418872606960174</v>
+      </c>
+      <c r="G83">
+        <v>-0.06544403265663683</v>
+      </c>
+      <c r="H83">
+        <v>-0.01822292482897126</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>-0.02813002850723582</v>
+        <v>0.03589109066303479</v>
       </c>
       <c r="C84">
-        <v>-0.0296270278874122</v>
+        <v>0.019978885165296</v>
       </c>
       <c r="D84">
-        <v>-0.03469346281310188</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.03714411981594257</v>
+      </c>
+      <c r="E84">
+        <v>0.0192019704462742</v>
+      </c>
+      <c r="F84">
+        <v>0.04325298594127102</v>
+      </c>
+      <c r="G84">
+        <v>-0.04617500128621835</v>
+      </c>
+      <c r="H84">
+        <v>0.03187571669575179</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.1184998135709407</v>
+        <v>0.1213612180842808</v>
       </c>
       <c r="C85">
-        <v>-0.03874576575824274</v>
+        <v>0.01485922149858994</v>
       </c>
       <c r="D85">
-        <v>-0.04920069214069059</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.0382912018072524</v>
+      </c>
+      <c r="E85">
+        <v>0.01503645642295819</v>
+      </c>
+      <c r="F85">
+        <v>-0.03110265224093269</v>
+      </c>
+      <c r="G85">
+        <v>-0.004492450015024705</v>
+      </c>
+      <c r="H85">
+        <v>0.1424563254711778</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.05325199677069636</v>
+        <v>0.05725998041144371</v>
       </c>
       <c r="C86">
-        <v>-0.02133053897259863</v>
+        <v>0.007441284276273967</v>
       </c>
       <c r="D86">
-        <v>-0.05966694882365836</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.03525624406940186</v>
+      </c>
+      <c r="E86">
+        <v>0.042350352220287</v>
+      </c>
+      <c r="F86">
+        <v>-0.0348592071987644</v>
+      </c>
+      <c r="G86">
+        <v>-0.03770488645197178</v>
+      </c>
+      <c r="H86">
+        <v>-0.0335786522423809</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.1233178004436464</v>
+        <v>0.1253913350663644</v>
       </c>
       <c r="C87">
-        <v>-0.06642938226304186</v>
+        <v>0.03025990119448996</v>
       </c>
       <c r="D87">
-        <v>-0.07175404490109399</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.07012043872144852</v>
+      </c>
+      <c r="E87">
+        <v>0.0180414397043626</v>
+      </c>
+      <c r="F87">
+        <v>-0.02071328433879939</v>
+      </c>
+      <c r="G87">
+        <v>0.1287068425725703</v>
+      </c>
+      <c r="H87">
+        <v>-0.07248441596242179</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.05411960659522853</v>
+        <v>0.06257207313640502</v>
       </c>
       <c r="C88">
-        <v>-0.02729716512478025</v>
+        <v>0.01604515383709269</v>
       </c>
       <c r="D88">
-        <v>-0.02540778924157785</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.03850925021696934</v>
+      </c>
+      <c r="E88">
+        <v>0.008414023005946633</v>
+      </c>
+      <c r="F88">
+        <v>-0.01709663910188392</v>
+      </c>
+      <c r="G88">
+        <v>0.01733849422552558</v>
+      </c>
+      <c r="H88">
+        <v>0.03922011419653722</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.08598500507341132</v>
+        <v>0.1062956844220782</v>
       </c>
       <c r="C89">
-        <v>-0.07669062489565186</v>
+        <v>0.126103183496243</v>
       </c>
       <c r="D89">
-        <v>0.3204191784591473</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.3368685665611323</v>
+      </c>
+      <c r="E89">
+        <v>0.06059857967476474</v>
+      </c>
+      <c r="F89">
+        <v>-0.07369544855432907</v>
+      </c>
+      <c r="G89">
+        <v>-0.02438683081615004</v>
+      </c>
+      <c r="H89">
+        <v>0.01305642188590562</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.06725054731199717</v>
+        <v>0.08301544432231826</v>
       </c>
       <c r="C90">
-        <v>-0.06370879316490284</v>
+        <v>0.1033430840233488</v>
       </c>
       <c r="D90">
-        <v>0.2799699170086932</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2775713227517155</v>
+      </c>
+      <c r="E90">
+        <v>0.04908639756926191</v>
+      </c>
+      <c r="F90">
+        <v>-0.03981627741791946</v>
+      </c>
+      <c r="G90">
+        <v>0.0207027937454753</v>
+      </c>
+      <c r="H90">
+        <v>-0.001024082346903903</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.09060586753925452</v>
+        <v>0.09149014606298971</v>
       </c>
       <c r="C91">
-        <v>-0.04917471722890424</v>
+        <v>0.02520020132403426</v>
       </c>
       <c r="D91">
-        <v>-0.01435781211885118</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.0331761934233891</v>
+      </c>
+      <c r="E91">
+        <v>0.007405863476601444</v>
+      </c>
+      <c r="F91">
+        <v>0.001893671998046584</v>
+      </c>
+      <c r="G91">
+        <v>-0.02143215860177635</v>
+      </c>
+      <c r="H91">
+        <v>0.0915120611814161</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.07211406449543915</v>
+        <v>0.08615788020833688</v>
       </c>
       <c r="C92">
-        <v>-0.07891053201412836</v>
+        <v>0.1254626939792518</v>
       </c>
       <c r="D92">
-        <v>0.3400478706472627</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.3307052738997754</v>
+      </c>
+      <c r="E92">
+        <v>0.04112364958369256</v>
+      </c>
+      <c r="F92">
+        <v>-0.04060993685053171</v>
+      </c>
+      <c r="G92">
+        <v>0.01225667996444245</v>
+      </c>
+      <c r="H92">
+        <v>0.0176573759490337</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.06259254784239451</v>
+        <v>0.08083275951274028</v>
       </c>
       <c r="C93">
-        <v>-0.06902280614812083</v>
+        <v>0.1151733498057333</v>
       </c>
       <c r="D93">
-        <v>0.3005437876388135</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2930589308941843</v>
+      </c>
+      <c r="E93">
+        <v>0.02246316441029926</v>
+      </c>
+      <c r="F93">
+        <v>-0.03454604881722124</v>
+      </c>
+      <c r="G93">
+        <v>0.01845767135364134</v>
+      </c>
+      <c r="H93">
+        <v>0.006614117646504609</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.1356123869671943</v>
+        <v>0.1296812120203506</v>
       </c>
       <c r="C94">
-        <v>-0.04173047846128049</v>
+        <v>0.008023936768348557</v>
       </c>
       <c r="D94">
-        <v>-0.04440374223686342</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04980799558722217</v>
+      </c>
+      <c r="E94">
+        <v>-0.01897263251942275</v>
+      </c>
+      <c r="F94">
+        <v>-0.01012725125954364</v>
+      </c>
+      <c r="G94">
+        <v>-0.04252911970714557</v>
+      </c>
+      <c r="H94">
+        <v>0.1133132467533261</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.1226051552401829</v>
+        <v>0.1296811454007271</v>
       </c>
       <c r="C95">
-        <v>-0.0171989243889415</v>
+        <v>-0.009614240854147946</v>
       </c>
       <c r="D95">
-        <v>-0.05488182185132051</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.05897525552763138</v>
+      </c>
+      <c r="E95">
+        <v>0.01159421233893052</v>
+      </c>
+      <c r="F95">
+        <v>-0.05270257653065231</v>
+      </c>
+      <c r="G95">
+        <v>0.01409602564502654</v>
+      </c>
+      <c r="H95">
+        <v>-0.07680099961508745</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3187,100 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>-0.2206035205831578</v>
+        <v>0.1978458409999989</v>
       </c>
       <c r="C97">
-        <v>-0.03982179658740977</v>
+        <v>-0.00525324625088104</v>
       </c>
       <c r="D97">
-        <v>0.09964253243586213</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.0749678292256665</v>
+      </c>
+      <c r="E97">
+        <v>-0.0623021254430498</v>
+      </c>
+      <c r="F97">
+        <v>0.927566211164882</v>
+      </c>
+      <c r="G97">
+        <v>0.09664265559176353</v>
+      </c>
+      <c r="H97">
+        <v>-0.01970981631133865</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.244582520971038</v>
+        <v>0.2736514810340034</v>
       </c>
       <c r="C98">
-        <v>-0.05034919272884331</v>
+        <v>0.009288934871831474</v>
       </c>
       <c r="D98">
-        <v>-0.0172512543684205</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.0465324243882961</v>
+      </c>
+      <c r="E98">
+        <v>-0.1857207882724171</v>
+      </c>
+      <c r="F98">
+        <v>-0.0387763385397956</v>
+      </c>
+      <c r="G98">
+        <v>-0.3104618276855933</v>
+      </c>
+      <c r="H98">
+        <v>-0.1930036153202545</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>-0.3892025656200508</v>
+        <v>0.2514992992888375</v>
       </c>
       <c r="C99">
-        <v>0.900294970949172</v>
+        <v>-0.9173523628047161</v>
       </c>
       <c r="D99">
-        <v>0.0808404812774835</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.2424460801361848</v>
+      </c>
+      <c r="E99">
+        <v>0.07036459278604083</v>
+      </c>
+      <c r="F99">
+        <v>-0.07000839399889397</v>
+      </c>
+      <c r="G99">
+        <v>-0.00192884276497025</v>
+      </c>
+      <c r="H99">
+        <v>0.0772956778716192</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3291,48 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.04583053176026838</v>
+        <v>0.04786077482594719</v>
       </c>
       <c r="C101">
-        <v>-0.0296273428139599</v>
+        <v>0.02148489626688375</v>
       </c>
       <c r="D101">
-        <v>-0.003529144734775009</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.01259347973986145</v>
+      </c>
+      <c r="E101">
+        <v>0.05602744578423816</v>
+      </c>
+      <c r="F101">
+        <v>-0.02011248414009813</v>
+      </c>
+      <c r="G101">
+        <v>0.01615336496944518</v>
+      </c>
+      <c r="H101">
+        <v>0.06872981153412455</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3343,22 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
